--- a/Cart_TestCases.xlsx
+++ b/Cart_TestCases.xlsx
@@ -159,10 +159,10 @@
     <t>TS_SS_002</t>
   </si>
   <si>
-    <t xml:space="preserve">Navigate to cart page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goto cart page without logging in </t>
+    <t>Navigate to cart page</t>
+  </si>
+  <si>
+    <t>Goto cart page without logging in</t>
   </si>
   <si>
     <t>1. Click on cart icon in the navbar</t>
@@ -178,7 +178,7 @@
  login page</t>
   </si>
   <si>
-    <t xml:space="preserve">Goto cart page after logging in </t>
+    <t>Goto cart page after logging in</t>
   </si>
   <si>
     <t>Redirect to cart page</t>
@@ -191,7 +191,7 @@
     <t>TS_SS_003</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify user can update product quantity </t>
+    <t>Verify user can update product quantity</t>
   </si>
   <si>
     <t>Update quantity in cart</t>
@@ -211,7 +211,7 @@
     <t>Product in cart</t>
   </si>
   <si>
-    <t xml:space="preserve">Updated cart </t>
+    <t>Updated cart</t>
   </si>
   <si>
     <t>Product quantity and price
@@ -1406,7 +1406,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9:N14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1602,7 +1602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" ht="57.6" spans="1:14">
+    <row r="9" ht="43.2" spans="1:14">
       <c r="A9" t="s">
         <v>24</v>
       </c>
